--- a/BackTest/2019-11-01 BackTest CON.xlsx
+++ b/BackTest/2019-11-01 BackTest CON.xlsx
@@ -451,17 +451,13 @@
         <v>5.008666666666647</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>5.009333333333314</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>5.009999999999979</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>5.010666666666646</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>5.011333333333312</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>5.011833333333311</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>5.012333333333311</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>5.01283333333331</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>5.01333333333331</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>5.013833333333309</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>5.014499999999976</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>5.015166666666643</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,17 +871,13 @@
         <v>5.015999999999977</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.05</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -990,22 +906,14 @@
         <v>5.016999999999977</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,22 +941,14 @@
         <v>5.017999999999977</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1079,17 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1120,17 +1014,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1533,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1615,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1697,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1820,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1861,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1902,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1943,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2025,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2066,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2107,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2148,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2189,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2230,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2804,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3009,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3214,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3255,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3296,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3378,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3460,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3501,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3583,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3624,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3665,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3706,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3747,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3788,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3829,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3870,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3911,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3952,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4034,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4075,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4116,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4157,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4198,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4362,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4403,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4444,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4608,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4772,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4813,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4854,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4936,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4977,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5059,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5100,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5182,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5387,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5428,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5469,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5592,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5633,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5715,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5756,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5797,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6002,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6084,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6125,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6166,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6207,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6371,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6412,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6494,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6535,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6617,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6658,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6699,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6740,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6781,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6822,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6863,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6904,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6945,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6986,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7027,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7068,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7191,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7232,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7273,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7314,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7355,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7396,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7437,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7516,19 +6474,13 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>1.01480198019802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7557,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -7592,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -7627,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -8849,13 +7801,17 @@
         <v>5.097499999999993</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K212" t="n">
+        <v>5.04</v>
+      </c>
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
@@ -8884,14 +7840,22 @@
         <v>5.096833333333326</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K213" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8919,14 +7883,22 @@
         <v>5.096166666666661</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K214" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +7926,22 @@
         <v>5.09516666666666</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="K215" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8989,14 +7969,22 @@
         <v>5.094333333333328</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K216" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9024,14 +8012,22 @@
         <v>5.093333333333328</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K217" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9059,14 +8055,22 @@
         <v>5.092166666666661</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K218" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9170,8 +8186,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9205,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9240,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9345,8 +8391,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9380,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9415,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9450,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9485,8 +8555,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9520,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9555,8 +8637,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9590,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9625,8 +8719,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9660,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9695,8 +8801,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +8842,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9765,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9800,8 +8924,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9835,8 +8965,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9870,8 +9006,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9905,8 +9047,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9940,8 +9088,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9975,8 +9129,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10010,8 +9170,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10045,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10080,8 +9252,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +9293,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10150,8 +9334,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10185,8 +9375,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10220,8 +9416,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +9457,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +9498,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10325,8 +9539,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10360,8 +9580,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10395,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +9662,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +9703,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10535,8 +9785,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +9826,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10605,8 +9867,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10640,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10675,8 +9949,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10710,8 +9990,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10745,8 +10031,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10780,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10815,8 +10113,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10850,8 +10154,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +10195,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10920,8 +10236,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10955,8 +10277,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10990,8 +10318,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11025,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +10400,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11095,8 +10441,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11130,8 +10482,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11165,8 +10523,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11200,8 +10564,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11235,8 +10605,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11270,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11305,8 +10687,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11340,8 +10728,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +10769,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +10810,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +10851,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11480,8 +10892,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11515,8 +10933,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11550,8 +10974,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +11015,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +11056,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11655,8 +11097,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11690,8 +11138,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +11179,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +11220,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11795,8 +11261,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11830,8 +11302,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11865,8 +11343,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11900,8 +11384,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11935,8 +11425,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11970,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +11507,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +11548,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12075,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12110,8 +11630,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12145,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +11753,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12250,8 +11794,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12285,8 +11835,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12320,8 +11876,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12355,8 +11917,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12390,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12425,8 +11999,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12460,8 +12040,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12495,8 +12081,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +12122,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +12163,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12600,8 +12204,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12635,8 +12245,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12670,8 +12286,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12705,8 +12327,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +12368,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +12409,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12810,8 +12450,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12845,8 +12491,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12880,8 +12532,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12915,8 +12573,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12950,8 +12614,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12985,8 +12655,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13020,8 +12696,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13055,8 +12737,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13090,8 +12778,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13125,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +12860,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13195,8 +12901,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13230,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13265,8 +12983,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13300,8 +13024,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13335,8 +13065,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13370,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13405,8 +13147,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13440,8 +13188,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13475,8 +13229,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13510,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13545,8 +13311,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13580,8 +13352,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13615,8 +13393,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13650,8 +13434,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13685,8 +13475,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +13516,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +13557,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13790,8 +13598,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13825,8 +13639,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13860,8 +13680,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +13721,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13930,8 +13762,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13965,8 +13803,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14000,8 +13844,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +13885,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14070,8 +13926,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14105,8 +13967,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14140,8 +14008,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14175,8 +14049,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14210,8 +14090,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14245,8 +14131,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14280,8 +14172,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14315,8 +14213,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14350,8 +14254,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14385,8 +14295,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14420,8 +14336,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14455,8 +14377,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14490,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14525,8 +14459,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14560,8 +14500,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14595,8 +14541,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14630,8 +14582,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14665,8 +14623,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14700,8 +14664,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14735,8 +14705,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14770,8 +14746,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +14787,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14840,8 +14828,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +14869,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +14910,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14945,8 +14951,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14980,8 +14992,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15015,8 +15033,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +15074,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15085,8 +15115,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15120,8 +15156,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15155,8 +15197,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15190,8 +15238,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15225,8 +15279,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15260,8 +15320,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15295,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15330,8 +15402,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15365,8 +15443,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15400,8 +15484,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15435,8 +15525,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +15566,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +15607,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15540,8 +15648,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15575,8 +15689,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15610,8 +15730,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15645,8 +15771,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15680,8 +15812,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +15853,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15750,8 +15894,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15785,8 +15935,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15820,8 +15976,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15855,8 +16017,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15890,8 +16058,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15925,8 +16099,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +16140,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15995,8 +16181,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +16222,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16065,8 +16263,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16100,8 +16304,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16135,8 +16345,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +16386,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +16427,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16240,8 +16468,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16275,8 +16509,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16310,8 +16550,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16345,8 +16591,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16380,8 +16632,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16415,8 +16673,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +16714,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16485,8 +16755,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16520,8 +16796,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16555,8 +16837,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16590,8 +16878,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16625,8 +16919,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16660,8 +16960,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16695,8 +17001,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16730,8 +17042,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16765,8 +17083,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16800,8 +17124,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16835,8 +17165,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16870,8 +17206,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16905,8 +17247,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16940,8 +17288,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16975,8 +17329,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17010,8 +17370,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17045,8 +17411,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17080,8 +17452,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +17493,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17150,8 +17534,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17185,8 +17575,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17220,8 +17616,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17255,8 +17657,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17290,8 +17698,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17325,8 +17739,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +17780,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17395,8 +17821,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17430,8 +17862,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17465,8 +17903,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17500,8 +17944,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17535,8 +17985,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17570,8 +18026,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17605,8 +18067,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17640,8 +18108,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17675,8 +18149,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17710,8 +18190,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17745,8 +18231,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17780,8 +18272,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17815,8 +18313,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17850,8 +18354,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17885,8 +18395,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17920,8 +18436,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17955,8 +18477,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17990,8 +18518,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18025,8 +18559,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18060,8 +18600,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18095,8 +18641,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18130,8 +18682,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18165,8 +18723,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18200,8 +18764,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18235,8 +18805,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18270,8 +18846,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18305,8 +18887,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18928,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18375,8 +18969,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18410,8 +19010,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18445,8 +19051,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18480,8 +19092,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18515,8 +19133,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18550,8 +19174,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18585,8 +19215,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18620,8 +19256,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18655,8 +19297,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18690,8 +19338,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18725,8 +19379,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18760,8 +19420,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18795,8 +19461,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18830,8 +19502,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18865,8 +19543,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18900,8 +19584,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18935,8 +19625,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +19666,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19005,8 +19707,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19040,8 +19748,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19075,8 +19789,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19110,8 +19830,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19145,8 +19871,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19180,8 +19912,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19215,8 +19953,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19250,8 +19994,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19285,8 +20035,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19320,8 +20076,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +20117,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19390,8 +20158,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19425,8 +20199,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19460,8 +20240,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +20281,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19530,8 +20322,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19565,8 +20363,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19600,8 +20404,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19635,8 +20445,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19670,8 +20486,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19705,8 +20527,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19740,8 +20568,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19775,8 +20609,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19810,8 +20650,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19845,8 +20691,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19880,8 +20732,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19915,8 +20773,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19950,8 +20814,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19985,8 +20855,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20020,8 +20896,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20055,8 +20937,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20090,8 +20978,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20125,8 +21019,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20160,8 +21060,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20195,8 +21101,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20230,8 +21142,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20265,8 +21183,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20300,8 +21224,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20335,8 +21265,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20370,8 +21306,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20405,8 +21347,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20440,8 +21388,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +21429,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20510,8 +21470,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20545,8 +21511,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20580,8 +21552,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20615,8 +21593,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21634,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20685,8 +21675,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20720,8 +21716,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20755,8 +21757,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20790,8 +21798,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20825,8 +21839,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20860,8 +21880,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20895,8 +21921,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20930,8 +21962,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20965,8 +22003,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21000,8 +22044,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21035,8 +22085,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21070,8 +22126,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21105,8 +22167,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21140,8 +22208,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21175,8 +22249,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21210,8 +22290,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21245,8 +22331,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21280,8 +22372,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21315,8 +22413,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21350,8 +22454,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21385,8 +22495,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21420,8 +22536,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21455,8 +22577,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21490,8 +22618,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21525,8 +22659,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21560,8 +22700,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21595,8 +22741,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21630,8 +22782,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21665,8 +22823,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21700,8 +22864,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21735,8 +22905,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21770,8 +22946,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22987,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21840,8 +23028,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21875,8 +23069,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21907,13 +23107,19 @@
         <v>0</v>
       </c>
       <c r="I585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M585" t="n">
-        <v>1</v>
+        <v>1.008888888888889</v>
       </c>
     </row>
     <row r="586">
@@ -21942,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
@@ -21977,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
@@ -22012,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
@@ -22047,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
@@ -22082,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
@@ -27437,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
@@ -27472,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest CON.xlsx
+++ b/BackTest/2019-11-01 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.99</v>
@@ -521,7 +521,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.99</v>
@@ -562,7 +562,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.99</v>
@@ -603,10 +603,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.99</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,15 +640,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>4.99</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,13 +681,13 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.99</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,7 +722,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -722,48 +730,48 @@
       <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>522690.2748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2085533.5578</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>522690.2748</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-2085533.5578</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,7 +800,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
@@ -833,54 +841,56 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>63590.7885</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2085533.5578</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>63590.7885</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-2085533.5578</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,9 +919,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
@@ -948,7 +960,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -956,48 +968,48 @@
       <c r="J15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>157636.0531</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2085533.5578</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>157636.0531</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-2085533.5578</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
@@ -1067,7 +1079,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
@@ -1075,48 +1087,48 @@
       <c r="J18" t="n">
         <v>5</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2075533.5578</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-2075533.5578</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>5.01</v>
@@ -1186,7 +1198,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
@@ -1194,48 +1206,48 @@
       <c r="J21" t="n">
         <v>5</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>111433.4916</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2154084.906</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>111433.4916</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-2154084.906</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
@@ -1305,7 +1317,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -1313,48 +1325,48 @@
       <c r="J24" t="n">
         <v>5</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>104922.6408</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2154084.906</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>104922.6408</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2154084.906</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5</v>
@@ -1424,7 +1436,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>5</v>
@@ -1432,48 +1444,48 @@
       <c r="J27" t="n">
         <v>5</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>208881.913</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2154084.906</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>208881.913</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-2154084.906</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -1543,7 +1555,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -1584,7 +1596,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
@@ -1625,7 +1637,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5</v>
@@ -1666,7 +1678,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
@@ -1707,7 +1719,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
@@ -1748,7 +1760,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -1789,7 +1801,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5</v>
@@ -1830,7 +1842,7 @@
         <v>-1826474.818</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -1871,7 +1883,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5.01</v>
@@ -1912,7 +1924,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5.02</v>
@@ -1953,7 +1965,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5.02</v>
@@ -1994,9 +2006,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J41" t="n">
         <v>5</v>
       </c>
@@ -2033,9 +2047,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J42" t="n">
         <v>5</v>
       </c>
@@ -2072,9 +2088,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J43" t="n">
         <v>5</v>
       </c>
@@ -2111,9 +2129,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J44" t="n">
         <v>5</v>
       </c>
@@ -2150,9 +2170,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J45" t="n">
         <v>5</v>
       </c>
@@ -2189,9 +2211,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J46" t="n">
         <v>5</v>
       </c>
@@ -2228,9 +2252,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J47" t="n">
         <v>5</v>
       </c>
@@ -2267,7 +2293,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>5.02</v>
@@ -2308,7 +2334,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>5.02</v>
@@ -2349,7 +2375,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>5.02</v>
@@ -2429,7 +2455,7 @@
         <v>-1657444.3781</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>5.02</v>
@@ -6292,2725 +6318,3217 @@
         <v>-21727.99840000004</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>5</v>
       </c>
       <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F152" t="n">
+        <v>77697.7093</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F153" t="n">
+        <v>119753.803</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F154" t="n">
+        <v>248450.5028</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F155" t="n">
+        <v>90503.5205</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F156" t="n">
+        <v>76083.8619</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F157" t="n">
+        <v>168260.9085</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>317507.2176</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F159" t="n">
+        <v>101271.4546</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F160" t="n">
+        <v>149064.3289</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F161" t="n">
+        <v>133826.9769</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F162" t="n">
+        <v>62833.6569</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F163" t="n">
+        <v>112267.0376</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F164" t="n">
+        <v>221640.6331</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F165" t="n">
+        <v>402627.9889</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F166" t="n">
+        <v>227588.3205</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-21727.99840000004</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F167" t="n">
+        <v>237783.1068</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-259511.1052</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F168" t="n">
+        <v>490410.6309</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-259511.1052</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F169" t="n">
+        <v>170292.1778</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-259511.1052</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F170" t="n">
+        <v>192233.8536</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-451744.9588</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F171" t="n">
+        <v>308046.2708</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-451744.9588</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F172" t="n">
+        <v>213884.3727</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-451744.9588</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F173" t="n">
+        <v>102932.0899</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-348812.8689</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F174" t="n">
+        <v>90947.2417</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F175" t="n">
+        <v>229237.7614</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F176" t="n">
+        <v>160612.0106</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F177" t="n">
+        <v>72564.4387</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F178" t="n">
+        <v>266090.4239</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F179" t="n">
+        <v>442912.3001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F180" t="n">
+        <v>122320.0645</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F181" t="n">
+        <v>200950.7662</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F182" t="n">
+        <v>461886.6392</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43818.8005</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F184" t="n">
+        <v>74384.1198</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F185" t="n">
+        <v>109104.9714</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F186" t="n">
+        <v>309629.6548</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F187" t="n">
+        <v>99978.23020000001</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F188" t="n">
+        <v>139609.1604</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F189" t="n">
+        <v>145849.4271</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F190" t="n">
+        <v>409524.8795</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F191" t="n">
+        <v>43579.6932</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F192" t="n">
+        <v>227954.7346</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-439760.1106</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F193" t="n">
+        <v>194830.007</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-244930.1036</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F194" t="n">
+        <v>378139.8688</v>
+      </c>
+      <c r="G194" t="n">
+        <v>133209.7652</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F195" t="n">
+        <v>294800.2466</v>
+      </c>
+      <c r="G195" t="n">
+        <v>133209.7652</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F196" t="n">
+        <v>88166.8233</v>
+      </c>
+      <c r="G196" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F197" t="n">
+        <v>102916.2452</v>
+      </c>
+      <c r="G197" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F198" t="n">
+        <v>217400.1081</v>
+      </c>
+      <c r="G198" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F199" t="n">
+        <v>298518.6488</v>
+      </c>
+      <c r="G199" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F200" t="n">
+        <v>450898.4157</v>
+      </c>
+      <c r="G200" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F201" t="n">
+        <v>73914.1056</v>
+      </c>
+      <c r="G201" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F202" t="n">
+        <v>109880.776</v>
+      </c>
+      <c r="G202" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F203" t="n">
+        <v>149474.8365</v>
+      </c>
+      <c r="G203" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F204" t="n">
+        <v>216924.4663</v>
+      </c>
+      <c r="G204" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F205" t="n">
+        <v>347609.0162</v>
+      </c>
+      <c r="G205" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F206" t="n">
+        <v>180297.6785</v>
+      </c>
+      <c r="G206" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F207" t="n">
+        <v>232071.9512</v>
+      </c>
+      <c r="G207" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F208" t="n">
+        <v>25246.3636</v>
+      </c>
+      <c r="G208" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F209" t="n">
+        <v>157683.3763</v>
+      </c>
+      <c r="G209" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F210" t="n">
+        <v>579923.0248</v>
+      </c>
+      <c r="G210" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F211" t="n">
+        <v>170816.0771</v>
+      </c>
+      <c r="G211" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F212" t="n">
+        <v>99348.6462</v>
+      </c>
+      <c r="G212" t="n">
+        <v>45042.94189999999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F213" t="n">
+        <v>823960.7823</v>
+      </c>
+      <c r="G213" t="n">
+        <v>869003.7241999999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>437154.4597</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1306158.1839</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F215" t="n">
+        <v>273682.5658</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1032475.6181</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>308577.495</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1341053.1131</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15547.5538</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1356600.6669</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>203697.6752</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1152902.9917</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>338788.8079</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1152902.9917</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>82698.9319</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1152902.9917</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>107104.2801</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1152902.9917</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>333019.1103</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1485922.102</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F223" t="n">
+        <v>40575.9209</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1485922.102</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F224" t="n">
+        <v>63055.3801</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1485922.102</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F225" t="n">
+        <v>652245.2985</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2138167.4005</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F226" t="n">
+        <v>297142.2383</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2435309.6388</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F227" t="n">
+        <v>121900.8007</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2313408.8381</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F228" t="n">
+        <v>91010.6254</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2404419.4635</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F229" t="n">
+        <v>130339.4516</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2404419.4635</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F230" t="n">
+        <v>47216.1752</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2404419.4635</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F231" t="n">
+        <v>441488.8164</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2845908.2799</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F232" t="n">
+        <v>113452.2822</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2845908.2799</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>38607.2194</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2845908.2799</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C152" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F152" t="n">
-        <v>77697.7093</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C153" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D153" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F153" t="n">
-        <v>119753.803</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C154" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D154" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F154" t="n">
-        <v>248450.5028</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C155" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D155" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E155" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F155" t="n">
-        <v>90503.5205</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F156" t="n">
-        <v>76083.8619</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D157" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E157" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F157" t="n">
-        <v>168260.9085</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C158" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D158" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E158" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F158" t="n">
-        <v>317507.2176</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C159" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D159" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F159" t="n">
-        <v>101271.4546</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C160" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F160" t="n">
-        <v>149064.3289</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F161" t="n">
-        <v>133826.9769</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F162" t="n">
-        <v>62833.6569</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F163" t="n">
-        <v>112267.0376</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F164" t="n">
-        <v>221640.6331</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F165" t="n">
-        <v>402627.9889</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F166" t="n">
-        <v>227588.3205</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-21727.99840000004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D167" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F167" t="n">
-        <v>237783.1068</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-259511.1052</v>
-      </c>
-      <c r="H167" t="n">
-        <v>3</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C168" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D168" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F168" t="n">
-        <v>490410.6309</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-259511.1052</v>
-      </c>
-      <c r="H168" t="n">
-        <v>3</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F169" t="n">
-        <v>170292.1778</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-259511.1052</v>
-      </c>
-      <c r="H169" t="n">
-        <v>3</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D170" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F170" t="n">
-        <v>192233.8536</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-451744.9588</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F171" t="n">
-        <v>308046.2708</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-451744.9588</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F172" t="n">
-        <v>213884.3727</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-451744.9588</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F173" t="n">
-        <v>102932.0899</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-348812.8689</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F174" t="n">
-        <v>90947.2417</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F175" t="n">
-        <v>229237.7614</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F176" t="n">
-        <v>160612.0106</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F177" t="n">
-        <v>72564.4387</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F178" t="n">
-        <v>266090.4239</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F179" t="n">
-        <v>442912.3001</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F180" t="n">
-        <v>122320.0645</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F181" t="n">
-        <v>200950.7662</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F182" t="n">
-        <v>461886.6392</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F183" t="n">
-        <v>43818.8005</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F184" t="n">
-        <v>74384.1198</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F185" t="n">
-        <v>109104.9714</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F186" t="n">
-        <v>309629.6548</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F187" t="n">
-        <v>99978.23020000001</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F188" t="n">
-        <v>139609.1604</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F189" t="n">
-        <v>145849.4271</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F190" t="n">
-        <v>409524.8795</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F191" t="n">
-        <v>43579.6932</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F192" t="n">
-        <v>227954.7346</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-439760.1106</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C193" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D193" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E193" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F193" t="n">
-        <v>194830.007</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-244930.1036</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C194" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D194" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E194" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F194" t="n">
-        <v>378139.8688</v>
-      </c>
-      <c r="G194" t="n">
-        <v>133209.7652</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C195" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D195" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E195" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F195" t="n">
-        <v>294800.2466</v>
-      </c>
-      <c r="G195" t="n">
-        <v>133209.7652</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D196" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E196" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F196" t="n">
-        <v>88166.8233</v>
-      </c>
-      <c r="G196" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D197" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E197" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F197" t="n">
-        <v>102916.2452</v>
-      </c>
-      <c r="G197" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D198" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E198" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F198" t="n">
-        <v>217400.1081</v>
-      </c>
-      <c r="G198" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D199" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E199" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F199" t="n">
-        <v>298518.6488</v>
-      </c>
-      <c r="G199" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D200" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E200" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F200" t="n">
-        <v>450898.4157</v>
-      </c>
-      <c r="G200" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D201" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E201" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F201" t="n">
-        <v>73914.1056</v>
-      </c>
-      <c r="G201" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C202" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D202" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E202" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F202" t="n">
-        <v>109880.776</v>
-      </c>
-      <c r="G202" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D203" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E203" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F203" t="n">
-        <v>149474.8365</v>
-      </c>
-      <c r="G203" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C204" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D204" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E204" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F204" t="n">
-        <v>216924.4663</v>
-      </c>
-      <c r="G204" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D205" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E205" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F205" t="n">
-        <v>347609.0162</v>
-      </c>
-      <c r="G205" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D206" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F206" t="n">
-        <v>180297.6785</v>
-      </c>
-      <c r="G206" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D207" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F207" t="n">
-        <v>232071.9512</v>
-      </c>
-      <c r="G207" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D208" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F208" t="n">
-        <v>25246.3636</v>
-      </c>
-      <c r="G208" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D209" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E209" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F209" t="n">
-        <v>157683.3763</v>
-      </c>
-      <c r="G209" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D210" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F210" t="n">
-        <v>579923.0248</v>
-      </c>
-      <c r="G210" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D211" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F211" t="n">
-        <v>170816.0771</v>
-      </c>
-      <c r="G211" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D212" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F212" t="n">
-        <v>99348.6462</v>
-      </c>
-      <c r="G212" t="n">
-        <v>45042.94189999999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F213" t="n">
-        <v>823960.7823</v>
-      </c>
-      <c r="G213" t="n">
-        <v>869003.7241999999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>437154.4597</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1306158.1839</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D215" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E215" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F215" t="n">
-        <v>273682.5658</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1032475.6181</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D216" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>308577.495</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1341053.1131</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D217" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E217" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F217" t="n">
-        <v>15547.5538</v>
-      </c>
-      <c r="G217" t="n">
-        <v>1356600.6669</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D218" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F218" t="n">
-        <v>203697.6752</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1152902.9917</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>338788.8079</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1152902.9917</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E220" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>82698.9319</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1152902.9917</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C221" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D221" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>107104.2801</v>
-      </c>
-      <c r="G221" t="n">
-        <v>1152902.9917</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D222" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E222" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>333019.1103</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1485922.102</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D223" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F223" t="n">
-        <v>40575.9209</v>
-      </c>
-      <c r="G223" t="n">
-        <v>1485922.102</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F224" t="n">
-        <v>63055.3801</v>
-      </c>
-      <c r="G224" t="n">
-        <v>1485922.102</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D225" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E225" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F225" t="n">
-        <v>652245.2985</v>
-      </c>
-      <c r="G225" t="n">
-        <v>2138167.4005</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F226" t="n">
-        <v>297142.2383</v>
-      </c>
-      <c r="G226" t="n">
-        <v>2435309.6388</v>
-      </c>
-      <c r="H226" t="n">
-        <v>3</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="C227" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="D227" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F227" t="n">
-        <v>121900.8007</v>
-      </c>
-      <c r="G227" t="n">
-        <v>2313408.8381</v>
-      </c>
-      <c r="H227" t="n">
-        <v>3</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="C228" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D228" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F228" t="n">
-        <v>91010.6254</v>
-      </c>
-      <c r="G228" t="n">
-        <v>2404419.4635</v>
-      </c>
-      <c r="H228" t="n">
-        <v>3</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="C229" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D229" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="E229" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F229" t="n">
-        <v>130339.4516</v>
-      </c>
-      <c r="G229" t="n">
-        <v>2404419.4635</v>
-      </c>
-      <c r="H229" t="n">
-        <v>3</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="C230" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="E230" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F230" t="n">
-        <v>47216.1752</v>
-      </c>
-      <c r="G230" t="n">
-        <v>2404419.4635</v>
-      </c>
-      <c r="H230" t="n">
-        <v>3</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F231" t="n">
-        <v>441488.8164</v>
-      </c>
-      <c r="G231" t="n">
-        <v>2845908.2799</v>
-      </c>
-      <c r="H231" t="n">
-        <v>3</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E232" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F232" t="n">
-        <v>113452.2822</v>
-      </c>
-      <c r="G232" t="n">
-        <v>2845908.2799</v>
-      </c>
-      <c r="H232" t="n">
-        <v>3</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F233" t="n">
-        <v>38607.2194</v>
-      </c>
-      <c r="G233" t="n">
-        <v>2845908.2799</v>
-      </c>
-      <c r="H233" t="n">
-        <v>3</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="M233" t="inlineStr"/>
     </row>
@@ -9037,7 +9555,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9070,7 +9588,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9103,7 +9621,7 @@
         <v>2609958.0303</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9136,7 +9654,7 @@
         <v>2586937.0068</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9169,7 +9687,7 @@
         <v>2484601.9003</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9202,7 +9720,7 @@
         <v>2484601.9003</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9235,7 +9753,7 @@
         <v>1823814.2535</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9268,7 +9786,7 @@
         <v>1823814.2535</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9301,7 +9819,7 @@
         <v>1823814.2535</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9334,7 +9852,7 @@
         <v>1733449.385</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9367,7 +9885,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9400,7 +9918,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9433,7 +9951,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9466,7 +9984,7 @@
         <v>2064716.0081</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9499,7 +10017,7 @@
         <v>2308043.9457</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9532,7 +10050,7 @@
         <v>2256052.4242</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9565,7 +10083,7 @@
         <v>2515615.5825</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9598,7 +10116,7 @@
         <v>2515615.5825</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9631,7 +10149,7 @@
         <v>2707547.6395</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9664,7 +10182,7 @@
         <v>2331424.6469</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9697,7 +10215,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9730,7 +10248,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9763,7 +10281,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9796,7 +10314,7 @@
         <v>1613284.1203</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9829,7 +10347,7 @@
         <v>1613284.1203</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9862,7 +10380,7 @@
         <v>1479848.275193579</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9895,7 +10413,7 @@
         <v>1087016.24229358</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9928,7 +10446,7 @@
         <v>959404.1838935795</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9961,7 +10479,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9994,7 +10512,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10027,7 +10545,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10060,7 +10578,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10093,7 +10611,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10126,7 +10644,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10159,7 +10677,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10192,7 +10710,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10225,7 +10743,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10258,7 +10776,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10291,7 +10809,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10324,7 +10842,7 @@
         <v>867193.0282935796</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10357,7 +10875,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10390,7 +10908,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10423,7 +10941,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10456,7 +10974,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10489,7 +11007,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10522,7 +11040,7 @@
         <v>758040.5874935796</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10555,7 +11073,7 @@
         <v>758040.5874935796</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -22567,7 +23085,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22633,7 +23151,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22666,7 +23184,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22699,7 +23217,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22765,7 +23283,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22798,7 +23316,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22897,7 +23415,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23194,7 +23712,7 @@
         <v>-2038172.833663337</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23293,7 +23811,7 @@
         <v>-2748008.689063338</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23425,7 +23943,7 @@
         <v>-3335747.916163337</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -36570,6 +37088,6 @@
       <c r="M1068" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CON.xlsx
+++ b/BackTest/2019-11-01 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2088363.223</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2088363.223</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2088363.223</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,14 +880,10 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,19 +913,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,19 +946,11 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1079,14 +979,10 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1116,19 +1012,11 @@
         <v>-2075533.5578</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,19 +1045,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1198,14 +1078,10 @@
         <v>-2154084.906</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1235,19 +1111,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1144,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1317,14 +1177,10 @@
         <v>-2154084.906</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1354,19 +1210,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1395,19 +1243,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1276,10 @@
         <v>-2154084.906</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1473,19 +1309,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1514,19 +1342,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1555,19 +1375,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1596,19 +1408,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1637,19 +1441,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,19 +1474,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1719,19 +1507,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1540,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1573,11 @@
         <v>-2154084.906</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1842,19 +1606,11 @@
         <v>-1826474.818</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1883,19 +1639,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1924,19 +1672,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1965,19 +1705,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2006,19 +1738,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +1771,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2088,19 +1804,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +1837,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2170,19 +1870,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2211,19 +1903,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,19 +1936,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2293,19 +1969,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2334,19 +2002,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2035,11 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2419,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2455,19 +2101,11 @@
         <v>-1657444.3781</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2538,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2577,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2616,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2655,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2694,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2733,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2811,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2850,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2889,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2928,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2967,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3006,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3045,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3084,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3123,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3162,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3201,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3240,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3279,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3318,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3435,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3552,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3591,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3627,17 +3091,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3666,17 +3124,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3705,17 +3157,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3744,17 +3190,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3786,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3825,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3903,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3981,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4059,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4098,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4137,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4176,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4215,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4254,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4293,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4332,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4407,17 +3751,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4446,17 +3784,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4485,17 +3817,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4524,17 +3850,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4566,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4602,17 +3916,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4644,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4683,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4758,17 +4048,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4797,17 +4081,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4839,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4875,17 +4147,11 @@
         <v>-503484.963</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4995,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5034,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5073,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5151,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5190,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5307,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5385,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5463,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5502,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5541,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5580,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5658,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5697,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5736,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5775,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5814,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5853,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5892,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5931,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6048,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6087,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6126,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6165,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6204,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6243,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6282,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6321,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6360,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6399,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6438,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6477,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6516,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6555,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6594,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6633,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6672,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6711,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6750,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6789,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6828,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6867,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6906,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6945,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6984,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7023,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7062,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7101,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7140,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7179,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7218,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7257,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7296,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7335,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7374,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7413,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7452,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7491,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7530,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7569,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7608,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7647,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7686,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7725,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7764,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7803,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7842,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7881,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7920,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7959,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7998,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8037,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8076,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8115,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8154,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8193,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8232,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8271,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8310,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8349,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8388,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8427,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8466,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8505,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8544,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8583,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8622,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8661,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8700,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8739,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8778,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8817,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8856,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8895,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8934,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8973,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9012,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9051,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9090,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9129,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9168,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9207,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9243,17 +7843,11 @@
         <v>2435309.6388</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9282,17 +7876,11 @@
         <v>2313408.8381</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9321,17 +7909,11 @@
         <v>2404419.4635</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9360,17 +7942,11 @@
         <v>2404419.4635</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9399,17 +7975,11 @@
         <v>2404419.4635</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9438,17 +8008,11 @@
         <v>2845908.2799</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9477,17 +8041,11 @@
         <v>2845908.2799</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9519,16 +8077,10 @@
         <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="M233" t="inlineStr"/>
     </row>
@@ -9555,7 +8107,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9588,7 +8140,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -10182,7 +8734,7 @@
         <v>2331424.6469</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10215,7 +8767,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10248,7 +8800,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10281,7 +8833,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10314,7 +8866,7 @@
         <v>1613284.1203</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10347,7 +8899,7 @@
         <v>1613284.1203</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10380,7 +8932,7 @@
         <v>1479848.275193579</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10413,7 +8965,7 @@
         <v>1087016.24229358</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10446,7 +8998,7 @@
         <v>959404.1838935795</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10479,7 +9031,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10512,7 +9064,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10545,7 +9097,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10578,7 +9130,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10611,7 +9163,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10644,7 +9196,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10677,7 +9229,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10710,7 +9262,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10743,7 +9295,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10776,7 +9328,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10809,7 +9361,7 @@
         <v>684309.0689935796</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10842,7 +9394,7 @@
         <v>867193.0282935796</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10875,7 +9427,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10908,7 +9460,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10941,7 +9493,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10974,7 +9526,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11007,7 +9559,7 @@
         <v>747004.7851935796</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11040,7 +9592,7 @@
         <v>758040.5874935796</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11073,7 +9625,7 @@
         <v>758040.5874935796</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -23085,7 +21637,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23118,7 +21670,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23151,7 +21703,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23184,7 +21736,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23217,7 +21769,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23250,7 +21802,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -27507,7 +26059,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27540,7 +26092,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27573,7 +26125,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27606,7 +26158,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27639,7 +26191,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27672,7 +26224,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27705,7 +26257,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27738,7 +26290,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27771,7 +26323,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27804,7 +26356,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27837,7 +26389,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27870,7 +26422,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27903,7 +26455,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27936,7 +26488,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27969,7 +26521,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28002,7 +26554,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28035,7 +26587,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28068,7 +26620,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28101,7 +26653,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28134,7 +26686,7 @@
         <v>-6521246.51796334</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28167,7 +26719,7 @@
         <v>-6396473.505963339</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29289,7 +27841,7 @@
         <v>-7488663.67327618</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30279,10 +28831,14 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J862" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
@@ -30312,11 +28868,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J863" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30345,11 +28909,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J864" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30378,10 +28950,14 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J865" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
@@ -30411,11 +28987,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J866" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30444,11 +29028,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J867" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30477,11 +29069,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J868" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30510,11 +29110,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J869" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30543,11 +29151,19 @@
         <v>-7165247.486176181</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J870" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30576,11 +29192,19 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="J871" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30609,11 +29233,19 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J872" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30645,8 +29277,14 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30678,8 +29316,14 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30711,8 +29355,14 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30744,8 +29394,14 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30777,8 +29433,14 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30810,8 +29472,14 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30843,8 +29511,14 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30876,8 +29550,14 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30909,8 +29589,14 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30942,8 +29628,14 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30975,8 +29667,14 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31008,8 +29706,14 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31041,8 +29745,14 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31074,8 +29784,14 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31107,8 +29823,14 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31140,8 +29862,14 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31173,8 +29901,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31206,8 +29940,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31239,8 +29979,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31272,8 +30018,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31305,8 +30057,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31338,8 +30096,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31371,8 +30135,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31404,8 +30174,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31437,8 +30213,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31470,8 +30252,14 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31503,8 +30291,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31536,8 +30330,14 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31569,8 +30369,14 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31602,8 +30408,14 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31635,8 +30447,14 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31668,8 +30486,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31701,8 +30525,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31734,8 +30564,14 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31767,8 +30603,14 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31800,8 +30642,14 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31833,8 +30681,14 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31866,8 +30720,14 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31899,8 +30759,14 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31932,8 +30798,14 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31965,8 +30837,14 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31998,8 +30876,14 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32031,8 +30915,14 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32064,8 +30954,14 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32097,8 +30993,14 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32130,8 +31032,14 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32163,8 +31071,14 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32196,8 +31110,14 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32229,8 +31149,14 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32262,8 +31188,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32295,8 +31227,14 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32328,8 +31266,14 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32361,8 +31305,14 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32394,8 +31344,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32427,8 +31383,14 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32460,8 +31422,14 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32493,8 +31461,14 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32526,8 +31500,14 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32559,8 +31539,14 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32592,8 +31578,14 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32625,8 +31617,14 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32658,8 +31656,14 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32691,8 +31695,14 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32724,8 +31734,14 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32757,8 +31773,14 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32790,8 +31812,14 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32823,8 +31851,14 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32856,8 +31890,14 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32889,8 +31929,14 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32922,8 +31968,14 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32955,8 +32007,14 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32988,8 +32046,14 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33021,8 +32085,14 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33054,8 +32124,14 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33087,8 +32163,14 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33120,8 +32202,14 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33153,8 +32241,14 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33186,8 +32280,14 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33219,8 +32319,14 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33252,8 +32358,14 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33285,8 +32397,14 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33318,8 +32436,14 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33351,8 +32475,14 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33384,8 +32514,14 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33417,8 +32553,14 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33450,8 +32592,14 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33483,8 +32631,14 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33516,8 +32670,14 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33549,8 +32709,14 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33582,8 +32748,14 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33615,8 +32787,14 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33648,8 +32826,14 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33681,8 +32865,14 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33714,8 +32904,14 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33747,8 +32943,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33780,8 +32982,14 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33813,8 +33021,14 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33846,8 +33060,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33879,8 +33099,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33912,8 +33138,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33945,8 +33177,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33978,8 +33216,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34011,8 +33255,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34044,8 +33294,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34077,8 +33333,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34110,8 +33372,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34143,8 +33411,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34176,8 +33450,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34209,8 +33489,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34242,8 +33528,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34275,8 +33567,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34308,8 +33606,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34341,8 +33645,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34374,8 +33684,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34407,8 +33723,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34440,8 +33762,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34473,8 +33801,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34506,8 +33840,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34539,8 +33879,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34572,8 +33918,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34605,8 +33957,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34638,8 +33996,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34671,8 +34035,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34704,8 +34074,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34737,8 +34113,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34770,8 +34152,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34803,8 +34191,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34836,8 +34230,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34869,8 +34269,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34902,8 +34308,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34935,8 +34347,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34968,8 +34386,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35001,8 +34425,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35034,8 +34464,14 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35067,8 +34503,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35100,8 +34542,14 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35133,8 +34581,14 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35166,8 +34620,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35199,8 +34659,14 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35232,8 +34698,14 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35265,8 +34737,14 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35298,8 +34776,14 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35331,8 +34815,14 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35364,8 +34854,14 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35397,8 +34893,14 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35430,8 +34932,14 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35463,8 +34971,14 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35496,8 +35010,14 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35529,8 +35049,14 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35562,8 +35088,14 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35595,8 +35127,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35628,8 +35166,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35661,8 +35205,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35694,8 +35244,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35727,8 +35283,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35760,8 +35322,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35793,8 +35361,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35826,8 +35400,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35859,8 +35439,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35892,8 +35478,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35925,8 +35517,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35958,8 +35556,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35991,8 +35595,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36024,8 +35634,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36057,8 +35673,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36090,8 +35712,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36123,8 +35751,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36156,8 +35790,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36189,8 +35829,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36222,8 +35868,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36255,8 +35907,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36288,8 +35946,14 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36321,8 +35985,14 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36354,8 +36024,14 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36387,8 +36063,14 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36420,8 +36102,14 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36453,8 +36141,14 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36486,8 +36180,14 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36519,8 +36219,14 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36552,8 +36258,14 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36585,8 +36297,14 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36618,8 +36336,14 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36651,8 +36375,14 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36684,8 +36414,14 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36717,8 +36453,14 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36750,8 +36492,14 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36783,8 +36531,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36816,8 +36570,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36849,8 +36609,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36882,8 +36648,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36915,8 +36687,14 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36948,8 +36726,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36981,8 +36765,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37014,8 +36804,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37047,8 +36843,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37080,14 +36882,20 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
       <c r="M1068" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CON.xlsx
+++ b/BackTest/2019-11-01 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-2088363.223</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.99</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-2088363.223</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-2088363.223</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.99</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +960,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +997,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,19 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1079,14 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1116,19 @@
         <v>-2075533.5578</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1157,19 @@
         <v>-2154084.906</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,10 +1198,14 @@
         <v>-2154084.906</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1114,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1274,19 @@
         <v>-2154084.906</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1315,14 @@
         <v>-2154084.906</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1352,19 @@
         <v>-2154084.906</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1393,19 @@
         <v>-2154084.906</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,10 +1434,14 @@
         <v>-2154084.906</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1312,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1513,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1588,19 @@
         <v>-2154084.906</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1632,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1671,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1710,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1827,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1866,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1905,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1944,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1983,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2022,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2061,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2100,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2139,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2178,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2217,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2256,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2295,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2334,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2373,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2451,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2490,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2529,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2685,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2724,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2919,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2958,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2997,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3036,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3075,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3153,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3192,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3270,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3309,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3348,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3387,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3426,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3465,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3543,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3579,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3618,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3657,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3696,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3777,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3816,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3855,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3894,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3933,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4011,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4050,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4089,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4128,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4167,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4206,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4245,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4323,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4359,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4398,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4437,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4476,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4518,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4554,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4596,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4635,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4674,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4710,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4749,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4791,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4827,17 @@
         <v>-503484.963</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4869,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4908,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4947,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4986,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5025,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5064,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5103,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5142,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5181,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5220,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5259,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5337,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5376,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5415,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5454,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5493,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5532,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5571,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5610,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5649,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5688,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5727,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5766,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5805,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5844,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5883,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5922,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5961,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +6000,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6039,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6078,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6117,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6156,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6195,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6234,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6390,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6429,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6546,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6585,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6624,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6663,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6741,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6780,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6819,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6936,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7014,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7053,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7092,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7131,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7248,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7287,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7326,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7404,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7521,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7560,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7599,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7638,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7677,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7794,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7833,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7989,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +8028,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +8184,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +8223,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +8262,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +8340,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8379,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8418,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8457,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8535,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8613,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8652,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8691,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8730,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8808,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8847,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8886,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8925,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8964,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +9003,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +9042,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +9081,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +9120,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +9159,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +9195,17 @@
         <v>2435309.6388</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +9234,17 @@
         <v>2313408.8381</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,10 +9276,16 @@
         <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L228" t="n">
-        <v>1</v>
+        <v>1.021</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -7942,7 +9312,7 @@
         <v>2404419.4635</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8140,7 +9510,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8437,7 +9807,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +9840,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +9873,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8569,7 +9939,7 @@
         <v>2308043.9457</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8668,7 +10038,7 @@
         <v>2515615.5825</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +10104,7 @@
         <v>2331424.6469</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +10137,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +10170,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -21637,7 +23007,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +23040,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +23073,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +23106,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +23139,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +23172,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -26059,7 +27429,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +27462,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +27495,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +27528,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +27561,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +27594,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +27627,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +27660,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +27693,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +27726,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +27759,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +27792,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +27825,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +27858,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +27891,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +27924,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +27957,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +27990,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +28023,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +28056,7 @@
         <v>-6521246.51796334</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +28089,7 @@
         <v>-6396473.505963339</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27841,7 +29211,7 @@
         <v>-7488663.67327618</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28336,10 +29706,14 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J847" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
@@ -28372,8 +29746,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +29782,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J849" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,10 +29823,14 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J850" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
@@ -28468,11 +29860,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J851" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28501,11 +29901,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J852" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,10 +29942,14 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J853" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
@@ -28567,11 +29979,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J854" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +30020,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J855" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +30061,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J856" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +30102,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J857" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +30143,19 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J858" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +30184,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J859" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +30225,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J860" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +30266,19 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J861" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28837,9 +30313,13 @@
         <v>5.1</v>
       </c>
       <c r="J862" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K862" t="inlineStr"/>
+        <v>5.11</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28874,11 +30354,11 @@
         <v>5.1</v>
       </c>
       <c r="J863" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L863" t="n">
@@ -28915,11 +30395,11 @@
         <v>5.1</v>
       </c>
       <c r="J864" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L864" t="n">
@@ -28956,9 +30436,13 @@
         <v>5.1</v>
       </c>
       <c r="J865" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K865" t="inlineStr"/>
+        <v>5.11</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28993,11 +30477,11 @@
         <v>5.1</v>
       </c>
       <c r="J866" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L866" t="n">
@@ -29034,11 +30518,11 @@
         <v>5.1</v>
       </c>
       <c r="J867" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L867" t="n">
@@ -29075,11 +30559,11 @@
         <v>5.1</v>
       </c>
       <c r="J868" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L868" t="n">
@@ -29116,7 +30600,7 @@
         <v>5.1</v>
       </c>
       <c r="J869" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29157,7 +30641,7 @@
         <v>5.1</v>
       </c>
       <c r="J870" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29198,7 +30682,7 @@
         <v>5.12</v>
       </c>
       <c r="J871" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29239,7 +30723,7 @@
         <v>5.11</v>
       </c>
       <c r="J872" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29274,11 +30758,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J873" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -29313,11 +30799,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J874" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -29352,11 +30840,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J875" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -29391,11 +30881,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J876" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -29430,11 +30922,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J877" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -29469,11 +30963,13 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J878" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29508,11 +31004,13 @@
         <v>-7439084.995376181</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J879" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29547,11 +31045,13 @@
         <v>-7280477.27137618</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J880" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29586,11 +31086,13 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J881" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -29625,11 +31127,13 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J882" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -29664,11 +31168,13 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J883" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -29703,11 +31209,13 @@
         <v>-7039000.38657618</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J884" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -29742,11 +31250,13 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J885" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -29781,11 +31291,13 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J886" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -29820,11 +31332,13 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J887" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -29859,11 +31373,13 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J888" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -29898,11 +31414,13 @@
         <v>-7000773.78997618</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J889" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -29937,11 +31455,13 @@
         <v>-7000773.78997618</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J890" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -29976,11 +31496,13 @@
         <v>-7111184.133876179</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J891" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30015,11 +31537,13 @@
         <v>-6223804.53447618</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J892" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30058,7 +31582,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30097,7 +31621,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30136,7 +31660,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30175,7 +31699,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30214,7 +31738,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30253,7 +31777,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30292,7 +31816,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30331,7 +31855,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30370,7 +31894,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -30409,7 +31933,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -30448,7 +31972,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -30487,7 +32011,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30526,7 +32050,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30565,7 +32089,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -30604,7 +32128,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -30643,7 +32167,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -30682,7 +32206,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -30721,7 +32245,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -30760,7 +32284,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -30799,7 +32323,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -30838,7 +32362,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -30877,7 +32401,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -30916,7 +32440,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -30955,7 +32479,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -30994,7 +32518,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31033,7 +32557,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31072,7 +32596,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31111,7 +32635,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31150,7 +32674,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31189,7 +32713,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31228,7 +32752,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31267,7 +32791,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31306,7 +32830,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31345,7 +32869,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31384,7 +32908,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31423,7 +32947,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31462,7 +32986,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31501,7 +33025,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31540,7 +33064,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31579,7 +33103,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31618,7 +33142,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31657,7 +33181,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -31696,7 +33220,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -31735,7 +33259,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -31770,11 +33294,13 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J937" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -31813,7 +33339,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -31848,11 +33374,13 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J939" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -31891,7 +33419,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -31930,7 +33458,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -31965,11 +33493,13 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J942" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32004,11 +33534,13 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J943" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32047,7 +33579,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32086,7 +33618,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32121,11 +33653,13 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J946" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32160,11 +33694,13 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J947" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32199,11 +33735,13 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J948" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32238,11 +33776,13 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J949" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32277,11 +33817,13 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J950" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32316,11 +33858,13 @@
         <v>-6274479.481557271</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J951" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32359,7 +33903,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32394,11 +33938,13 @@
         <v>-6588724.783957272</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J953" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32433,11 +33979,13 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J954" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32472,11 +34020,13 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J955" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32511,11 +34061,13 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J956" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32550,11 +34102,13 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J957" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32589,11 +34143,13 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J958" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32628,11 +34184,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J959" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32667,11 +34225,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J960" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -32706,11 +34266,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J961" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -32745,11 +34307,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J962" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -32784,11 +34348,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J963" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -32823,11 +34389,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J964" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -32862,11 +34430,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J965" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -32901,11 +34471,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J966" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -32940,11 +34512,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J967" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -32979,11 +34553,13 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J968" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -33018,11 +34594,13 @@
         <v>-6686533.931857272</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J969" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -33061,7 +34639,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -33100,7 +34678,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -33139,7 +34717,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -33178,7 +34756,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
@@ -33217,7 +34795,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K974" t="inlineStr">
         <is>
@@ -33256,7 +34834,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K975" t="inlineStr">
         <is>
@@ -33295,7 +34873,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K976" t="inlineStr">
         <is>
@@ -33334,7 +34912,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K977" t="inlineStr">
         <is>
@@ -33373,7 +34951,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K978" t="inlineStr">
         <is>
@@ -33412,7 +34990,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K979" t="inlineStr">
         <is>
@@ -33451,7 +35029,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K980" t="inlineStr">
         <is>
@@ -33486,11 +35064,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J981" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K981" t="inlineStr">
         <is>
@@ -33525,11 +35105,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J982" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K982" t="inlineStr">
         <is>
@@ -33564,11 +35146,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J983" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33603,11 +35187,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J984" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33642,11 +35228,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J985" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33685,7 +35273,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33720,11 +35308,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J987" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33763,7 +35353,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -33798,11 +35388,13 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J989" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -33841,7 +35433,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -33876,11 +35468,13 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J991" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -33915,11 +35509,13 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J992" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -33954,11 +35550,13 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J993" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -33993,11 +35591,13 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J994" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -34032,11 +35632,13 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J995" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -34071,11 +35673,13 @@
         <v>-6449835.038457273</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J996" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -34114,7 +35718,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -34153,7 +35757,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -34192,7 +35796,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -34231,7 +35835,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34270,7 +35874,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34309,7 +35913,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34348,7 +35952,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34383,11 +35987,13 @@
         <v>-6159422.407257273</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J1004" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34426,7 +36032,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34465,7 +36071,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34504,7 +36110,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34543,7 +36149,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34582,7 +36188,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34621,7 +36227,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -34660,7 +36266,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34699,7 +36305,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34734,11 +36340,13 @@
         <v>-6159422.407257273</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J1013" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34773,11 +36381,13 @@
         <v>-6407886.447657273</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>5.12</v>
+      </c>
       <c r="J1014" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34812,11 +36422,13 @@
         <v>-6407886.447657273</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J1015" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34851,11 +36463,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J1016" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34890,11 +36504,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J1017" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34929,11 +36545,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J1018" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34968,11 +36586,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J1019" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -35007,11 +36627,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J1020" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -35046,11 +36668,13 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J1021" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -35089,7 +36713,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -35128,7 +36752,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35167,7 +36791,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35206,7 +36830,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35245,7 +36869,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35284,7 +36908,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35323,7 +36947,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35362,7 +36986,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -35401,7 +37025,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35440,7 +37064,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35479,7 +37103,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35518,7 +37142,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35557,7 +37181,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35596,7 +37220,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35635,7 +37259,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35674,7 +37298,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35713,7 +37337,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35752,7 +37376,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35791,7 +37415,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35830,7 +37454,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35869,7 +37493,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35908,7 +37532,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35947,7 +37571,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35986,7 +37610,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -36025,7 +37649,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36064,7 +37688,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -36103,7 +37727,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -36142,7 +37766,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36181,7 +37805,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36220,7 +37844,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36259,7 +37883,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36298,7 +37922,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36337,7 +37961,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36376,7 +38000,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36415,7 +38039,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36454,7 +38078,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36493,7 +38117,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36532,7 +38156,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36571,7 +38195,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36610,7 +38234,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36649,7 +38273,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36688,7 +38312,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36727,7 +38351,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36766,7 +38390,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -36805,7 +38429,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36844,7 +38468,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36883,7 +38507,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
